--- a/public/_Import_Template.xlsx
+++ b/public/_Import_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
@@ -51,12 +51,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>#15713pe</t>
-  </si>
-  <si>
-    <t>Chris Wolf</t>
-  </si>
-  <si>
     <t>CCCCCC</t>
   </si>
   <si>
@@ -72,15 +66,6 @@
     <t>70068-6490</t>
   </si>
   <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>#15712pe</t>
-  </si>
-  <si>
-    <t>Harry BelafonteWilliams</t>
-  </si>
-  <si>
     <t>702 Northwest Viscaya Street</t>
   </si>
   <si>
@@ -99,10 +84,46 @@
     <t>note</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>34983</t>
+  </si>
+  <si>
+    <t>branchsell</t>
+  </si>
+  <si>
+    <t>typeproduct</t>
+  </si>
+  <si>
+    <t>seller</t>
+  </si>
+  <si>
+    <t>zalo</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>iphonexr</t>
+  </si>
+  <si>
+    <t>songsong</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>mug-11oz</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>#tes1</t>
+  </si>
+  <si>
+    <t>#tes2</t>
   </si>
 </sst>
 </file>
@@ -425,7 +446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -435,11 +456,12 @@
   <cols>
     <col min="5" max="5" width="34.5703125" customWidth="1"/>
     <col min="6" max="6" width="37.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -472,98 +494,156 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="M2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -576,8 +656,11 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -590,8 +673,11 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -603,9 +689,12 @@
       <c r="I7" s="9"/>
       <c r="J7" s="3"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -617,9 +706,12 @@
       <c r="I8" s="9"/>
       <c r="J8" s="3"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -632,8 +724,11 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -645,9 +740,12 @@
       <c r="I10" s="8"/>
       <c r="J10" s="3"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -659,9 +757,12 @@
       <c r="I11" s="10"/>
       <c r="J11" s="3"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -673,9 +774,12 @@
       <c r="I12" s="9"/>
       <c r="J12" s="3"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -687,7 +791,10 @@
       <c r="I13" s="9"/>
       <c r="J13" s="3"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/_Import_Template.xlsx
+++ b/public/_Import_Template.xlsx
@@ -90,9 +90,6 @@
     <t>branchsell</t>
   </si>
   <si>
-    <t>typeproduct</t>
-  </si>
-  <si>
     <t>seller</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>#tes2</t>
+  </si>
+  <si>
+    <t>skuNumber</t>
   </si>
 </sst>
 </file>
@@ -448,8 +448,8 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -497,10 +497,10 @@
         <v>22</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>20</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
@@ -535,28 +535,28 @@
         <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -580,28 +580,28 @@
         <v>14</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -625,22 +625,22 @@
         <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">

--- a/public/_Import_Template.xlsx
+++ b/public/_Import_Template.xlsx
@@ -448,15 +448,17 @@
   </sheetPr>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
-    <col min="6" max="6" width="37.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="8" max="8" width="34.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1">
@@ -470,40 +472,40 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
@@ -516,39 +518,39 @@
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
@@ -561,39 +563,39 @@
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
@@ -606,41 +608,41 @@
       <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
@@ -658,7 +660,6 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
@@ -675,7 +676,6 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
@@ -691,8 +691,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
@@ -708,8 +707,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
@@ -726,7 +724,6 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
@@ -742,8 +739,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
@@ -759,8 +755,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
@@ -776,8 +771,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
@@ -793,8 +787,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="3"/>
+      <c r="N13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
